--- a/Machine Learning/Book1(1).xlsx
+++ b/Machine Learning/Book1(1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Software Development\Projects\GitHub\hoya-hack\Machine Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00902772-9AE4-4E33-A2D2-A4E4FA83A36B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65CD48CC-739F-402B-B364-FD68CBFBF01B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4332" yWindow="3408" windowWidth="17280" windowHeight="8964" xr2:uid="{09D9224B-842C-4840-8CE3-EBEB566371DE}"/>
+    <workbookView xWindow="2016" yWindow="3048" windowWidth="17280" windowHeight="8964" xr2:uid="{09D9224B-842C-4840-8CE3-EBEB566371DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,43 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -89,6 +126,62 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>8</v>
+    <v>4</v>
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_error">
+    <k n="colOffset" t="i"/>
+    <k n="errorType" t="i"/>
+    <k n="rwOffset" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+</rvStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -388,323 +481,2965 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0F9C88-7026-4E70-8441-33EDB8F1C001}">
-  <dimension ref="CW1:OO304"/>
+  <dimension ref="CW1:CJQ2204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="401" max="401" width="22.5546875" customWidth="1"/>
-    <col min="402" max="402" width="18.77734375" customWidth="1"/>
-    <col min="403" max="403" width="22.33203125" customWidth="1"/>
-    <col min="404" max="404" width="20.44140625" customWidth="1"/>
+    <col min="1611" max="1611" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="2301" max="2301" width="22.5546875" customWidth="1"/>
+    <col min="2302" max="2302" width="18.77734375" customWidth="1"/>
+    <col min="2303" max="2303" width="22.33203125" customWidth="1"/>
+    <col min="2304" max="2304" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="101:107" x14ac:dyDescent="0.3">
+    <row r="1" spans="101:115" x14ac:dyDescent="0.3">
       <c r="CW1">
+        <v>1</v>
+      </c>
+      <c r="CX1">
+        <f>VALUE(3)</f>
         <v>3</v>
       </c>
       <c r="CY1">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="CZ1">
+        <f>VALUE(1180)</f>
         <v>1180</v>
       </c>
-      <c r="CZ1">
+      <c r="DA1">
+        <f>VALUE(1955)</f>
         <v>1955</v>
       </c>
-      <c r="DA1">
+      <c r="DB1">
+        <f>VALUE(221900)</f>
         <v>221900</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DH1" t="e" cm="1" vm="1">
+        <f t="array" aca="1" ref="DH1" ca="1">MMULT(MMULT(MINVERSE(MMULT(TRANSPOSE(CW1:DA10),(CW1:DA10))),TRANSPOSE(CW1:DA10)),DB1:DB10)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="2" spans="101:115" x14ac:dyDescent="0.3">
+      <c r="CW2">
+        <v>1</v>
+      </c>
+      <c r="CX2">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="CY2">
+        <f>VALUE(2.25)</f>
+        <v>2.25</v>
+      </c>
+      <c r="CZ2">
+        <f>VALUE(2570)</f>
+        <v>2570</v>
+      </c>
+      <c r="DA2">
+        <f>VALUE(1951)</f>
+        <v>1951</v>
+      </c>
+      <c r="DB2">
+        <f>VALUE(538000)</f>
+        <v>538000</v>
+      </c>
+      <c r="DH2">
+        <v>3</v>
+      </c>
+      <c r="DI2">
+        <f>DG2*DH2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="101:107" x14ac:dyDescent="0.3">
-      <c r="CW2">
-        <v>3</v>
-      </c>
-      <c r="CX2">
+    <row r="3" spans="101:115" x14ac:dyDescent="0.3">
+      <c r="CW3">
+        <v>1</v>
+      </c>
+      <c r="CX3">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="CY3">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="CZ3">
+        <f>VALUE(770)</f>
+        <v>770</v>
+      </c>
+      <c r="DA3">
+        <f>VALUE(1933)</f>
+        <v>1933</v>
+      </c>
+      <c r="DB3">
+        <f>VALUE(180000)</f>
+        <v>180000</v>
+      </c>
+      <c r="DH3">
+        <v>2.5</v>
+      </c>
+      <c r="DI3">
+        <f>DG3*DH3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="101:115" x14ac:dyDescent="0.3">
+      <c r="CW4">
+        <v>1</v>
+      </c>
+      <c r="CX4">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="CY4">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="CZ4">
+        <f>VALUE(1960)</f>
+        <v>1960</v>
+      </c>
+      <c r="DA4">
+        <f>VALUE(1965)</f>
+        <v>1965</v>
+      </c>
+      <c r="DB4">
+        <f>VALUE(604000)</f>
+        <v>604000</v>
+      </c>
+      <c r="DH4">
+        <v>3560</v>
+      </c>
+      <c r="DI4">
+        <f>DG4*DH4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="101:115" x14ac:dyDescent="0.3">
+      <c r="CW5">
+        <v>1</v>
+      </c>
+      <c r="CX5">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="CY5">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="CZ5">
+        <f>VALUE(1680)</f>
+        <v>1680</v>
+      </c>
+      <c r="DA5">
+        <f>VALUE(1987)</f>
+        <v>1987</v>
+      </c>
+      <c r="DB5">
+        <f>VALUE(510000)</f>
+        <v>510000</v>
+      </c>
+      <c r="DI5">
+        <f>DG5*DH5</f>
+        <v>0</v>
+      </c>
+      <c r="DK5">
+        <f>SUM(DI2:DI5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="101:115" x14ac:dyDescent="0.3">
+      <c r="CW6">
+        <v>1</v>
+      </c>
+      <c r="CX6">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="CY6">
+        <f>VALUE(4.5)</f>
+        <v>4.5</v>
+      </c>
+      <c r="CZ6">
+        <f>VALUE(5420)</f>
+        <v>5420</v>
+      </c>
+      <c r="DA6">
+        <f>VALUE(2001)</f>
+        <v>2001</v>
+      </c>
+      <c r="DB6">
+        <f>VALUE(1230000)</f>
+        <v>1230000</v>
+      </c>
+    </row>
+    <row r="7" spans="101:115" x14ac:dyDescent="0.3">
+      <c r="CW7">
+        <v>1</v>
+      </c>
+      <c r="CX7">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="CY7">
+        <f>VALUE(2.25)</f>
         <v>2.25</v>
       </c>
-      <c r="CY2">
+      <c r="CZ7">
+        <f>VALUE(1715)</f>
+        <v>1715</v>
+      </c>
+      <c r="DA7">
+        <f>VALUE(1995)</f>
+        <v>1995</v>
+      </c>
+      <c r="DB7">
+        <f>VALUE(257500)</f>
+        <v>257500</v>
+      </c>
+    </row>
+    <row r="8" spans="101:115" x14ac:dyDescent="0.3">
+      <c r="CW8">
+        <v>1</v>
+      </c>
+      <c r="CX8">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="CY8">
+        <f>VALUE(1.5)</f>
+        <v>1.5</v>
+      </c>
+      <c r="CZ8">
+        <f>VALUE(1060)</f>
+        <v>1060</v>
+      </c>
+      <c r="DA8">
+        <f>VALUE(1963)</f>
+        <v>1963</v>
+      </c>
+      <c r="DB8">
+        <f>VALUE(291850)</f>
+        <v>291850</v>
+      </c>
+    </row>
+    <row r="9" spans="101:115" x14ac:dyDescent="0.3">
+      <c r="CW9">
+        <v>1</v>
+      </c>
+      <c r="CX9">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="CY9">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="CZ9">
+        <f>VALUE(1780)</f>
+        <v>1780</v>
+      </c>
+      <c r="DA9">
+        <f>VALUE(1960)</f>
+        <v>1960</v>
+      </c>
+      <c r="DB9">
+        <f>VALUE(229500)</f>
+        <v>229500</v>
+      </c>
+    </row>
+    <row r="10" spans="101:115" x14ac:dyDescent="0.3">
+      <c r="CW10">
+        <v>1</v>
+      </c>
+      <c r="CX10">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="CY10">
+        <f>VALUE(2.5)</f>
+        <v>2.5</v>
+      </c>
+      <c r="CZ10">
+        <f>VALUE(1890)</f>
+        <v>1890</v>
+      </c>
+      <c r="DA10">
+        <f>VALUE(2003)</f>
+        <v>2003</v>
+      </c>
+      <c r="DB10">
+        <f>VALUE(323000)</f>
+        <v>323000</v>
+      </c>
+    </row>
+    <row r="101" spans="201:215" x14ac:dyDescent="0.3">
+      <c r="GS101">
+        <v>1</v>
+      </c>
+      <c r="GT101">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="GU101">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="GV101">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="GW101">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="GX101">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="HD101" t="e" cm="1" vm="1">
+        <f t="array" aca="1" ref="HD101" ca="1">MMULT(MMULT(MINVERSE(MMULT(TRANSPOSE(GS101:GW104),(GS101:GW104))),TRANSPOSE(GS101:GW104)),GX101:GX104)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="102" spans="201:215" x14ac:dyDescent="0.3">
+      <c r="GS102">
+        <v>1</v>
+      </c>
+      <c r="GT102">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="GU102">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="GV102">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="GW102">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="GX102">
+        <f>VALUE(6)</f>
+        <v>6</v>
+      </c>
+      <c r="HD102">
+        <v>2</v>
+      </c>
+      <c r="HE102">
+        <f>HC102*HD102</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="201:215" x14ac:dyDescent="0.3">
+      <c r="GS103">
+        <v>1</v>
+      </c>
+      <c r="GT103">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="GU103">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="GV103">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="GW103">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="GX103">
+        <f>VALUE(6)</f>
+        <v>6</v>
+      </c>
+      <c r="HD103">
+        <v>1</v>
+      </c>
+      <c r="HE103">
+        <f>HC103*HD103</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="201:215" x14ac:dyDescent="0.3">
+      <c r="GS104">
+        <v>1</v>
+      </c>
+      <c r="GT104">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="GU104">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="GV104">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="GW104">
+        <f>VALUE(7)</f>
+        <v>7</v>
+      </c>
+      <c r="GX104">
+        <f>VALUE(96)</f>
+        <v>96</v>
+      </c>
+      <c r="HD104">
+        <v>2</v>
+      </c>
+      <c r="HE104">
+        <f>HC104*HD104</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="201:215" x14ac:dyDescent="0.3">
+      <c r="HE105">
+        <f>HC105*HD105</f>
+        <v>0</v>
+      </c>
+      <c r="HG105">
+        <f>SUM(HE102:HE105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="301:302" x14ac:dyDescent="0.3">
+      <c r="KO201">
+        <v>1</v>
+      </c>
+      <c r="KP201">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="401" spans="501:511" x14ac:dyDescent="0.3">
+      <c r="SG401">
+        <v>1</v>
+      </c>
+      <c r="SH401">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="SI401">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="SJ401">
+        <f>VALUE(1180)</f>
+        <v>1180</v>
+      </c>
+      <c r="SK401">
+        <f>VALUE(1955)</f>
+        <v>1955</v>
+      </c>
+      <c r="SL401">
+        <f>VALUE(221900)</f>
+        <v>221900</v>
+      </c>
+      <c r="SQ401" cm="1">
+        <f t="array" ref="SQ401:SQ405">MMULT(MMULT(MINVERSE(MMULT(TRANSPOSE(SG401:SK410),(SG401:SK410))),TRANSPOSE(SG401:SK410)),SL401:SL410)</f>
+        <v>5011981.639772661</v>
+      </c>
+    </row>
+    <row r="402" spans="501:511" x14ac:dyDescent="0.3">
+      <c r="SG402">
+        <v>1</v>
+      </c>
+      <c r="SH402">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="SI402">
+        <f>VALUE(2.25)</f>
+        <v>2.25</v>
+      </c>
+      <c r="SJ402">
+        <f>VALUE(2570)</f>
         <v>2570</v>
       </c>
-      <c r="CZ2">
+      <c r="SK402">
+        <f>VALUE(1951)</f>
         <v>1951</v>
       </c>
-      <c r="DA2">
+      <c r="SL402">
+        <f>VALUE(538000)</f>
         <v>538000</v>
       </c>
-    </row>
-    <row r="3" spans="101:107" x14ac:dyDescent="0.3">
-      <c r="CW3">
-        <v>2</v>
-      </c>
-      <c r="CX3">
-        <v>1</v>
-      </c>
-      <c r="CY3">
+      <c r="SQ402">
+        <v>52049.160677000924</v>
+      </c>
+    </row>
+    <row r="403" spans="501:511" x14ac:dyDescent="0.3">
+      <c r="SG403">
+        <v>1</v>
+      </c>
+      <c r="SH403">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="SI403">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="SJ403">
+        <f>VALUE(770)</f>
         <v>770</v>
       </c>
-      <c r="CZ3">
+      <c r="SK403">
+        <f>VALUE(1933)</f>
         <v>1933</v>
       </c>
-      <c r="DA3">
+      <c r="SL403">
+        <f>VALUE(180000)</f>
         <v>180000</v>
       </c>
-    </row>
-    <row r="4" spans="101:107" x14ac:dyDescent="0.3">
-      <c r="CW4">
-        <v>4</v>
-      </c>
-      <c r="CX4">
-        <v>3</v>
-      </c>
-      <c r="CY4">
+      <c r="SQ403">
+        <v>137573.86631982494</v>
+      </c>
+    </row>
+    <row r="404" spans="501:511" x14ac:dyDescent="0.3">
+      <c r="SG404">
+        <v>1</v>
+      </c>
+      <c r="SH404">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="SI404">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="SJ404">
+        <f>VALUE(1960)</f>
         <v>1960</v>
       </c>
-      <c r="CZ4">
+      <c r="SK404">
+        <f>VALUE(1965)</f>
         <v>1965</v>
       </c>
-      <c r="DA4">
+      <c r="SL404">
+        <f>VALUE(604000)</f>
         <v>604000</v>
       </c>
-    </row>
-    <row r="5" spans="101:107" x14ac:dyDescent="0.3">
-      <c r="CW5">
-        <v>3</v>
-      </c>
-      <c r="CX5">
-        <v>2</v>
-      </c>
-      <c r="CY5">
+      <c r="SQ404">
+        <v>135.62546665653485</v>
+      </c>
+    </row>
+    <row r="405" spans="501:511" x14ac:dyDescent="0.3">
+      <c r="SG405">
+        <v>1</v>
+      </c>
+      <c r="SH405">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="SI405">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="SJ405">
+        <f>VALUE(1680)</f>
         <v>1680</v>
       </c>
-      <c r="CZ5">
+      <c r="SK405">
+        <f>VALUE(1987)</f>
         <v>1987</v>
       </c>
-      <c r="DA5">
+      <c r="SL405">
+        <f>VALUE(510000)</f>
         <v>510000</v>
       </c>
-    </row>
-    <row r="6" spans="101:107" x14ac:dyDescent="0.3">
-      <c r="CW6">
-        <v>4</v>
-      </c>
-      <c r="CX6">
+      <c r="SQ405">
+        <v>-2686.1736692147074</v>
+      </c>
+    </row>
+    <row r="406" spans="501:511" x14ac:dyDescent="0.3">
+      <c r="SG406">
+        <v>1</v>
+      </c>
+      <c r="SH406">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="SI406">
+        <f>VALUE(4.5)</f>
         <v>4.5</v>
       </c>
-      <c r="CY6">
+      <c r="SJ406">
+        <f>VALUE(5420)</f>
         <v>5420</v>
       </c>
-      <c r="CZ6">
+      <c r="SK406">
+        <f>VALUE(2001)</f>
         <v>2001</v>
       </c>
-      <c r="DA6">
+      <c r="SL406">
+        <f>VALUE(1230000)</f>
         <v>1230000</v>
       </c>
     </row>
-    <row r="7" spans="101:107" x14ac:dyDescent="0.3">
-      <c r="CW7">
-        <v>3</v>
-      </c>
-      <c r="CX7">
+    <row r="407" spans="501:511" x14ac:dyDescent="0.3">
+      <c r="SG407">
+        <v>1</v>
+      </c>
+      <c r="SH407">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="SI407">
+        <f>VALUE(2.25)</f>
         <v>2.25</v>
       </c>
-      <c r="CY7">
+      <c r="SJ407">
+        <f>VALUE(1715)</f>
         <v>1715</v>
       </c>
-      <c r="CZ7">
+      <c r="SK407">
+        <f>VALUE(1995)</f>
         <v>1995</v>
       </c>
-      <c r="DA7">
+      <c r="SL407">
+        <f>VALUE(257500)</f>
         <v>257500</v>
       </c>
     </row>
-    <row r="8" spans="101:107" x14ac:dyDescent="0.3">
-      <c r="CW8">
-        <v>3</v>
-      </c>
-      <c r="CX8">
+    <row r="408" spans="501:511" x14ac:dyDescent="0.3">
+      <c r="SG408">
+        <v>1</v>
+      </c>
+      <c r="SH408">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="SI408">
+        <f>VALUE(1.5)</f>
         <v>1.5</v>
       </c>
-      <c r="CY8">
+      <c r="SJ408">
+        <f>VALUE(1060)</f>
         <v>1060</v>
       </c>
-      <c r="CZ8">
+      <c r="SK408">
+        <f>VALUE(1963)</f>
         <v>1963</v>
       </c>
-      <c r="DA8">
+      <c r="SL408">
+        <f>VALUE(291850)</f>
         <v>291850</v>
       </c>
     </row>
-    <row r="9" spans="101:107" x14ac:dyDescent="0.3">
-      <c r="CW9">
-        <v>3</v>
-      </c>
-      <c r="CX9">
-        <v>1</v>
-      </c>
-      <c r="CY9">
+    <row r="409" spans="501:511" x14ac:dyDescent="0.3">
+      <c r="SG409">
+        <v>1</v>
+      </c>
+      <c r="SH409">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="SI409">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="SJ409">
+        <f>VALUE(1780)</f>
+        <v>1780</v>
+      </c>
+      <c r="SK409">
+        <f>VALUE(1960)</f>
+        <v>1960</v>
+      </c>
+      <c r="SL409">
+        <f>VALUE(229500)</f>
+        <v>229500</v>
+      </c>
+    </row>
+    <row r="410" spans="501:511" x14ac:dyDescent="0.3">
+      <c r="SG410">
+        <v>1</v>
+      </c>
+      <c r="SH410">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="SI410">
+        <f>VALUE(2.5)</f>
+        <v>2.5</v>
+      </c>
+      <c r="SJ410">
+        <f>VALUE(1890)</f>
+        <v>1890</v>
+      </c>
+      <c r="SK410">
+        <f>VALUE(2003)</f>
+        <v>2003</v>
+      </c>
+      <c r="SL410">
+        <f>VALUE(323000)</f>
+        <v>323000</v>
+      </c>
+    </row>
+    <row r="501" spans="601:611" x14ac:dyDescent="0.3">
+      <c r="WC501">
+        <v>1</v>
+      </c>
+      <c r="WD501">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="WE501">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="WF501">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="WG501">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="WH501">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="WM501" cm="1">
+        <f t="array" ref="WM501:WM505">MMULT(MMULT(MINVERSE(MMULT(TRANSPOSE(WC501:WG504),(WC501:WG504))),TRANSPOSE(WC501:WG504)),WH501:WH504)</f>
+        <v>10.4375</v>
+      </c>
+    </row>
+    <row r="502" spans="601:611" x14ac:dyDescent="0.3">
+      <c r="WC502">
+        <v>1</v>
+      </c>
+      <c r="WD502">
+        <f>VALUE(6)</f>
+        <v>6</v>
+      </c>
+      <c r="WE502">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="WF502">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="WG502">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="WH502">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="WM502">
+        <v>-0.7734375</v>
+      </c>
+    </row>
+    <row r="503" spans="601:611" x14ac:dyDescent="0.3">
+      <c r="WC503">
+        <v>1</v>
+      </c>
+      <c r="WD503">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="WE503">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="WF503">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="WG503">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="WH503">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="WM503">
+        <v>1.12109375</v>
+      </c>
+    </row>
+    <row r="504" spans="601:611" x14ac:dyDescent="0.3">
+      <c r="WC504">
+        <v>1</v>
+      </c>
+      <c r="WD504">
+        <f>VALUE(6)</f>
+        <v>6</v>
+      </c>
+      <c r="WE504">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="WF504">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="WG504">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="WH504">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="WM504">
+        <v>-1.439453125</v>
+      </c>
+    </row>
+    <row r="505" spans="601:611" x14ac:dyDescent="0.3">
+      <c r="WM505">
+        <v>0.8203125</v>
+      </c>
+    </row>
+    <row r="601" spans="701:715" x14ac:dyDescent="0.3">
+      <c r="ZY601">
+        <v>1</v>
+      </c>
+      <c r="ZZ601">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="AAA601">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="AAB601">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="AAC601">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="AAD601">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="AAI601" cm="1">
+        <f t="array" ref="AAI601:AAM605">MMULT(TRANSPOSE(ZY601:AAC604),(ZY601:AAC604))</f>
+        <v>4</v>
+      </c>
+      <c r="AAJ601">
+        <v>18</v>
+      </c>
+      <c r="AAK601">
+        <v>13</v>
+      </c>
+      <c r="AAL601">
+        <v>15</v>
+      </c>
+      <c r="AAM601">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="602" spans="701:715" x14ac:dyDescent="0.3">
+      <c r="ZY602">
+        <v>1</v>
+      </c>
+      <c r="ZZ602">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="AAA602">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="AAB602">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="AAC602">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="AAD602">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="AAI602">
+        <v>18</v>
+      </c>
+      <c r="AAJ602">
+        <v>90</v>
+      </c>
+      <c r="AAK602">
+        <v>57</v>
+      </c>
+      <c r="AAL602">
+        <v>66</v>
+      </c>
+      <c r="AAM602">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="603" spans="701:715" x14ac:dyDescent="0.3">
+      <c r="ZY603">
+        <v>1</v>
+      </c>
+      <c r="ZZ603">
+        <f>VALUE(6)</f>
+        <v>6</v>
+      </c>
+      <c r="AAA603">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="AAB603">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="AAC603">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="AAD603">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="AAI603">
+        <v>13</v>
+      </c>
+      <c r="AAJ603">
+        <v>57</v>
+      </c>
+      <c r="AAK603">
+        <v>47</v>
+      </c>
+      <c r="AAL603">
+        <v>49</v>
+      </c>
+      <c r="AAM603">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="604" spans="701:715" x14ac:dyDescent="0.3">
+      <c r="ZY604">
+        <v>1</v>
+      </c>
+      <c r="ZZ604">
+        <f>VALUE(6)</f>
+        <v>6</v>
+      </c>
+      <c r="AAA604">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="AAB604">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="AAC604">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="AAD604">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="AAI604">
+        <v>15</v>
+      </c>
+      <c r="AAJ604">
+        <v>66</v>
+      </c>
+      <c r="AAK604">
+        <v>49</v>
+      </c>
+      <c r="AAL604">
+        <v>57</v>
+      </c>
+      <c r="AAM604">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="605" spans="701:715" x14ac:dyDescent="0.3">
+      <c r="AAI605">
+        <v>14</v>
+      </c>
+      <c r="AAJ605">
+        <v>63</v>
+      </c>
+      <c r="AAK605">
+        <v>41</v>
+      </c>
+      <c r="AAL605">
+        <v>54</v>
+      </c>
+      <c r="AAM605">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="701" spans="801:805" x14ac:dyDescent="0.3">
+      <c r="ADU701">
+        <v>1</v>
+      </c>
+      <c r="ADV701">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="ADW701">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="ADX701">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="ADY701">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="801" spans="901:906" x14ac:dyDescent="0.3">
+      <c r="AHQ801">
+        <v>1</v>
+      </c>
+      <c r="AHR801">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="AHS801">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="AHT801">
+        <f>VALUE(6)</f>
+        <v>6</v>
+      </c>
+      <c r="AHU801">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="AHV801">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="802" spans="901:906" x14ac:dyDescent="0.3">
+      <c r="AHQ802">
+        <v>1</v>
+      </c>
+      <c r="AHR802">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="AHS802">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="AHT802">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="AHU802">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="AHV802">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="803" spans="901:906" x14ac:dyDescent="0.3">
+      <c r="AHQ803">
+        <v>1</v>
+      </c>
+      <c r="AHR803">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="AHS803">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="AHT803">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="AHU803">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="AHV803">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="804" spans="901:906" x14ac:dyDescent="0.3">
+      <c r="AHQ804">
+        <v>1</v>
+      </c>
+      <c r="AHR804">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="AHS804">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="AHT804">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="AHU804">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="AHV804">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="901" spans="1001:1006" x14ac:dyDescent="0.3">
+      <c r="ALM901">
+        <v>1</v>
+      </c>
+      <c r="ALN901">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="ALO901">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="ALP901">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="ALQ901">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="ALR901">
+        <f>VALUE(6)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="902" spans="1001:1006" x14ac:dyDescent="0.3">
+      <c r="ALM902">
+        <v>1</v>
+      </c>
+      <c r="ALN902">
+        <f>VALUE(6)</f>
+        <v>6</v>
+      </c>
+      <c r="ALO902">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="ALP902">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="ALQ902">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="ALR902">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="903" spans="1001:1006" x14ac:dyDescent="0.3">
+      <c r="ALM903">
+        <v>1</v>
+      </c>
+      <c r="ALN903">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="ALO903">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="ALP903">
+        <f>VALUE(6)</f>
+        <v>6</v>
+      </c>
+      <c r="ALQ903">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="ALR903">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="904" spans="1001:1006" x14ac:dyDescent="0.3">
+      <c r="ALM904">
+        <v>1</v>
+      </c>
+      <c r="ALN904">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="ALO904">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="ALP904">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="ALQ904">
+        <f>VALUE(6)</f>
+        <v>6</v>
+      </c>
+      <c r="ALR904">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1001" spans="1101:1106" x14ac:dyDescent="0.3">
+      <c r="API1001">
+        <v>1</v>
+      </c>
+      <c r="APJ1001">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="APK1001">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="APL1001">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="APM1001">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="APN1001">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1002" spans="1101:1106" x14ac:dyDescent="0.3">
+      <c r="API1002">
+        <v>1</v>
+      </c>
+      <c r="APJ1002">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="APK1002">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="APL1002">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="APM1002">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="APN1002">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1003" spans="1101:1106" x14ac:dyDescent="0.3">
+      <c r="API1003">
+        <v>1</v>
+      </c>
+      <c r="APJ1003">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="APK1003">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="APL1003">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="APM1003">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="APN1003">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1004" spans="1101:1106" x14ac:dyDescent="0.3">
+      <c r="API1004">
+        <v>1</v>
+      </c>
+      <c r="APJ1004">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="APK1004">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="APL1004">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="APM1004">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="APN1004">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1006" spans="1101:1106" x14ac:dyDescent="0.3">
+      <c r="API1006" cm="1">
+        <f t="array" ref="API1006:APL1010">TRANSPOSE(API1001:APM1004)</f>
+        <v>1</v>
+      </c>
+      <c r="APJ1006">
+        <v>1</v>
+      </c>
+      <c r="APK1006">
+        <v>1</v>
+      </c>
+      <c r="APL1006">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1007" spans="1101:1106" x14ac:dyDescent="0.3">
+      <c r="API1007">
+        <v>5</v>
+      </c>
+      <c r="APJ1007">
+        <v>3</v>
+      </c>
+      <c r="APK1007">
+        <v>3</v>
+      </c>
+      <c r="APL1007">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1008" spans="1101:1106" x14ac:dyDescent="0.3">
+      <c r="API1008">
+        <v>4</v>
+      </c>
+      <c r="APJ1008">
+        <v>4</v>
+      </c>
+      <c r="APK1008">
+        <v>2</v>
+      </c>
+      <c r="APL1008">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1009" spans="1101:1104" x14ac:dyDescent="0.3">
+      <c r="API1009">
+        <v>3</v>
+      </c>
+      <c r="APJ1009">
+        <v>2</v>
+      </c>
+      <c r="APK1009">
+        <v>4</v>
+      </c>
+      <c r="APL1009">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1010" spans="1101:1104" x14ac:dyDescent="0.3">
+      <c r="API1010">
+        <v>2</v>
+      </c>
+      <c r="APJ1010">
+        <v>1</v>
+      </c>
+      <c r="APK1010">
+        <v>1</v>
+      </c>
+      <c r="APL1010">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1101" spans="1201:1206" x14ac:dyDescent="0.3">
+      <c r="ATE1101">
+        <v>1</v>
+      </c>
+      <c r="ATF1101">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="ATG1101">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="ATH1101">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="ATI1101">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="ATJ1101">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1102" spans="1201:1206" x14ac:dyDescent="0.3">
+      <c r="ATE1102">
+        <v>1</v>
+      </c>
+      <c r="ATF1102">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="ATG1102">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="ATH1102">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="ATI1102">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="ATJ1102">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1103" spans="1201:1206" x14ac:dyDescent="0.3">
+      <c r="ATE1103">
+        <v>1</v>
+      </c>
+      <c r="ATF1103">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="ATG1103">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="ATH1103">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="ATI1103">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="ATJ1103">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1104" spans="1201:1206" x14ac:dyDescent="0.3">
+      <c r="ATE1104">
+        <v>1</v>
+      </c>
+      <c r="ATF1104">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+      <c r="ATG1104">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="ATH1104">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="ATI1104">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="ATJ1104">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1106" spans="1201:1201" x14ac:dyDescent="0.3">
+      <c r="ATE1106" t="e" cm="1">
+        <f t="array" ref="ATE1106">TRANSPOSE(Xmat)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1201" spans="1301:1306" x14ac:dyDescent="0.3">
+      <c r="AXA1201">
+        <v>1</v>
+      </c>
+      <c r="AXB1201">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="AXC1201">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="AXD1201">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="AXE1201">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="AXF1201">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1202" spans="1301:1306" x14ac:dyDescent="0.3">
+      <c r="AXA1202">
+        <v>1</v>
+      </c>
+      <c r="AXB1202">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="AXC1202">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="AXD1202">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="AXE1202">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="AXF1202">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1203" spans="1301:1306" x14ac:dyDescent="0.3">
+      <c r="AXA1203">
+        <v>1</v>
+      </c>
+      <c r="AXB1203">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="AXC1203">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="AXD1203">
+        <f>VALUE(23)</f>
+        <v>23</v>
+      </c>
+      <c r="AXE1203">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="AXF1203">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1204" spans="1301:1306" x14ac:dyDescent="0.3">
+      <c r="AXA1204">
+        <v>1</v>
+      </c>
+      <c r="AXB1204">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="AXC1204">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="AXD1204">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="AXE1204">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="AXF1204">
+        <f>VALUE(5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1301" spans="1401:1406" x14ac:dyDescent="0.3">
+      <c r="BAW1301">
+        <v>1</v>
+      </c>
+      <c r="BAX1301">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BAY1301">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="BAZ1301">
+        <f>VALUE(1180)</f>
+        <v>1180</v>
+      </c>
+      <c r="BBA1301">
+        <f>VALUE(1955)</f>
+        <v>1955</v>
+      </c>
+      <c r="BBB1301">
+        <f>VALUE(221900)</f>
+        <v>221900</v>
+      </c>
+    </row>
+    <row r="1302" spans="1401:1406" x14ac:dyDescent="0.3">
+      <c r="BAW1302">
+        <v>1</v>
+      </c>
+      <c r="BAX1302">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BAY1302">
+        <f>VALUE(2.25)</f>
+        <v>2.25</v>
+      </c>
+      <c r="BAZ1302">
+        <f>VALUE(2570)</f>
+        <v>2570</v>
+      </c>
+      <c r="BBA1302">
+        <f>VALUE(1951)</f>
+        <v>1951</v>
+      </c>
+      <c r="BBB1302">
+        <f>VALUE(538000)</f>
+        <v>538000</v>
+      </c>
+    </row>
+    <row r="1303" spans="1401:1406" x14ac:dyDescent="0.3">
+      <c r="BAW1303">
+        <v>1</v>
+      </c>
+      <c r="BAX1303">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="BAY1303">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="BAZ1303">
+        <f>VALUE(770)</f>
+        <v>770</v>
+      </c>
+      <c r="BBA1303">
+        <f>VALUE(1933)</f>
+        <v>1933</v>
+      </c>
+      <c r="BBB1303">
+        <f>VALUE(180000)</f>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="1304" spans="1401:1406" x14ac:dyDescent="0.3">
+      <c r="BAW1304">
+        <v>1</v>
+      </c>
+      <c r="BAX1304">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="BAY1304">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BAZ1304">
+        <f>VALUE(1960)</f>
+        <v>1960</v>
+      </c>
+      <c r="BBA1304">
+        <f>VALUE(1965)</f>
+        <v>1965</v>
+      </c>
+      <c r="BBB1304">
+        <f>VALUE(604000)</f>
+        <v>604000</v>
+      </c>
+    </row>
+    <row r="1305" spans="1401:1406" x14ac:dyDescent="0.3">
+      <c r="BAW1305">
+        <v>1</v>
+      </c>
+      <c r="BAX1305">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BAY1305">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="BAZ1305">
+        <f>VALUE(1680)</f>
+        <v>1680</v>
+      </c>
+      <c r="BBA1305">
+        <f>VALUE(1987)</f>
+        <v>1987</v>
+      </c>
+      <c r="BBB1305">
+        <f>VALUE(510000)</f>
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="1306" spans="1401:1406" x14ac:dyDescent="0.3">
+      <c r="BAW1306">
+        <v>1</v>
+      </c>
+      <c r="BAX1306">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="BAY1306">
+        <f>VALUE(4.5)</f>
+        <v>4.5</v>
+      </c>
+      <c r="BAZ1306">
+        <f>VALUE(5420)</f>
+        <v>5420</v>
+      </c>
+      <c r="BBA1306">
+        <f>VALUE(2001)</f>
+        <v>2001</v>
+      </c>
+      <c r="BBB1306">
+        <f>VALUE(1230000)</f>
+        <v>1230000</v>
+      </c>
+    </row>
+    <row r="1307" spans="1401:1406" x14ac:dyDescent="0.3">
+      <c r="BAW1307">
+        <v>1</v>
+      </c>
+      <c r="BAX1307">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BAY1307">
+        <f>VALUE(2.25)</f>
+        <v>2.25</v>
+      </c>
+      <c r="BAZ1307">
+        <f>VALUE(1715)</f>
+        <v>1715</v>
+      </c>
+      <c r="BBA1307">
+        <f>VALUE(1995)</f>
+        <v>1995</v>
+      </c>
+      <c r="BBB1307">
+        <f>VALUE(257500)</f>
+        <v>257500</v>
+      </c>
+    </row>
+    <row r="1308" spans="1401:1406" x14ac:dyDescent="0.3">
+      <c r="BAW1308">
+        <v>1</v>
+      </c>
+      <c r="BAX1308">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BAY1308">
+        <f>VALUE(1.5)</f>
+        <v>1.5</v>
+      </c>
+      <c r="BAZ1308">
+        <f>VALUE(1060)</f>
+        <v>1060</v>
+      </c>
+      <c r="BBA1308">
+        <f>VALUE(1963)</f>
+        <v>1963</v>
+      </c>
+      <c r="BBB1308">
+        <f>VALUE(291850)</f>
+        <v>291850</v>
+      </c>
+    </row>
+    <row r="1309" spans="1401:1406" x14ac:dyDescent="0.3">
+      <c r="BAW1309">
+        <v>1</v>
+      </c>
+      <c r="BAX1309">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BAY1309">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="BAZ1309">
+        <f>VALUE(1780)</f>
+        <v>1780</v>
+      </c>
+      <c r="BBA1309">
+        <f>VALUE(1960)</f>
+        <v>1960</v>
+      </c>
+      <c r="BBB1309">
+        <f>VALUE(229500)</f>
+        <v>229500</v>
+      </c>
+    </row>
+    <row r="1310" spans="1401:1406" x14ac:dyDescent="0.3">
+      <c r="BAW1310">
+        <v>1</v>
+      </c>
+      <c r="BAX1310">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BAY1310">
+        <f>VALUE(2.5)</f>
+        <v>2.5</v>
+      </c>
+      <c r="BAZ1310">
+        <f>VALUE(1890)</f>
+        <v>1890</v>
+      </c>
+      <c r="BBA1310">
+        <f>VALUE(2003)</f>
+        <v>2003</v>
+      </c>
+      <c r="BBB1310">
+        <f>VALUE(323000)</f>
+        <v>323000</v>
+      </c>
+    </row>
+    <row r="1401" spans="1501:1508" x14ac:dyDescent="0.3">
+      <c r="BES1401">
+        <v>1</v>
+      </c>
+      <c r="BET1401">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BEU1401">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="BEV1401">
+        <f>VALUE(1180)</f>
+        <v>1180</v>
+      </c>
+      <c r="BEW1401">
+        <f>VALUE(1955)</f>
+        <v>1955</v>
+      </c>
+      <c r="BEX1401">
+        <f>VALUE(221900)</f>
+        <v>221900</v>
+      </c>
+      <c r="BEZ1401" t="e" cm="1">
+        <f t="array" ref="BEZ1401">MMULT(MINVERSE(BES1401:BEW1410),BEX1401:BEX1410)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1402" spans="1501:1508" x14ac:dyDescent="0.3">
+      <c r="BES1402">
+        <v>1</v>
+      </c>
+      <c r="BET1402">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BEU1402">
+        <v>2.25</v>
+      </c>
+      <c r="BEV1402">
+        <f>VALUE(2570)</f>
+        <v>2570</v>
+      </c>
+      <c r="BEW1402">
+        <f>VALUE(1951)</f>
+        <v>1951</v>
+      </c>
+      <c r="BEX1402">
+        <f>VALUE(538000)</f>
+        <v>538000</v>
+      </c>
+    </row>
+    <row r="1403" spans="1501:1508" x14ac:dyDescent="0.3">
+      <c r="BES1403">
+        <v>1</v>
+      </c>
+      <c r="BET1403">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="BEU1403">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="BEV1403">
+        <f>VALUE(770)</f>
+        <v>770</v>
+      </c>
+      <c r="BEW1403">
+        <f>VALUE(1933)</f>
+        <v>1933</v>
+      </c>
+      <c r="BEX1403">
+        <f>VALUE(180000)</f>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="1404" spans="1501:1508" x14ac:dyDescent="0.3">
+      <c r="BES1404">
+        <v>1</v>
+      </c>
+      <c r="BET1404">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="BEU1404">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BEV1404">
+        <f>VALUE(1960)</f>
+        <v>1960</v>
+      </c>
+      <c r="BEW1404">
+        <f>VALUE(1965)</f>
+        <v>1965</v>
+      </c>
+      <c r="BEX1404">
+        <f>VALUE(604000)</f>
+        <v>604000</v>
+      </c>
+    </row>
+    <row r="1405" spans="1501:1508" x14ac:dyDescent="0.3">
+      <c r="BES1405">
+        <v>1</v>
+      </c>
+      <c r="BET1405">
+        <v>3</v>
+      </c>
+      <c r="BEU1405">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="BEV1405">
+        <f>VALUE(1680)</f>
+        <v>1680</v>
+      </c>
+      <c r="BEW1405">
+        <f>VALUE(1987)</f>
+        <v>1987</v>
+      </c>
+      <c r="BEX1405">
+        <f>VALUE(510000)</f>
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="1406" spans="1501:1508" x14ac:dyDescent="0.3">
+      <c r="BES1406">
+        <v>1</v>
+      </c>
+      <c r="BET1406">
+        <f>VALUE(4)</f>
+        <v>4</v>
+      </c>
+      <c r="BEU1406">
+        <f>VALUE(4.5)</f>
+        <v>4.5</v>
+      </c>
+      <c r="BEV1406">
+        <f>VALUE(5420)</f>
+        <v>5420</v>
+      </c>
+      <c r="BEW1406">
+        <f>VALUE(2001)</f>
+        <v>2001</v>
+      </c>
+      <c r="BEX1406">
+        <f>VALUE(1230000)</f>
+        <v>1230000</v>
+      </c>
+    </row>
+    <row r="1407" spans="1501:1508" x14ac:dyDescent="0.3">
+      <c r="BES1407">
+        <v>1</v>
+      </c>
+      <c r="BET1407">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BEU1407">
+        <f>VALUE(2.25)</f>
+        <v>2.25</v>
+      </c>
+      <c r="BEV1407">
+        <f>VALUE(1715)</f>
+        <v>1715</v>
+      </c>
+      <c r="BEW1407">
+        <f>VALUE(1995)</f>
+        <v>1995</v>
+      </c>
+      <c r="BEX1407">
+        <f>VALUE(257500)</f>
+        <v>257500</v>
+      </c>
+    </row>
+    <row r="1408" spans="1501:1508" x14ac:dyDescent="0.3">
+      <c r="BES1408">
+        <v>1</v>
+      </c>
+      <c r="BET1408">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BEU1408">
+        <f>VALUE(1.5)</f>
+        <v>1.5</v>
+      </c>
+      <c r="BEV1408">
+        <f>VALUE(1060)</f>
+        <v>1060</v>
+      </c>
+      <c r="BEW1408">
+        <f>VALUE(1963)</f>
+        <v>1963</v>
+      </c>
+      <c r="BEX1408">
+        <f>VALUE(291850)</f>
+        <v>291850</v>
+      </c>
+    </row>
+    <row r="1409" spans="1501:1506" x14ac:dyDescent="0.3">
+      <c r="BES1409">
+        <v>1</v>
+      </c>
+      <c r="BET1409">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BEU1409">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="BEV1409">
+        <f>VALUE(1780)</f>
+        <v>1780</v>
+      </c>
+      <c r="BEW1409">
+        <f>VALUE(1960)</f>
+        <v>1960</v>
+      </c>
+      <c r="BEX1409">
+        <f>VALUE(229500)</f>
+        <v>229500</v>
+      </c>
+    </row>
+    <row r="1410" spans="1501:1506" x14ac:dyDescent="0.3">
+      <c r="BES1410">
+        <v>1</v>
+      </c>
+      <c r="BET1410">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BEU1410">
+        <f>VALUE(2.5)</f>
+        <v>2.5</v>
+      </c>
+      <c r="BEV1410">
+        <f>VALUE(1890)</f>
+        <v>1890</v>
+      </c>
+      <c r="BEW1410">
+        <f>VALUE(2003)</f>
+        <v>2003</v>
+      </c>
+      <c r="BEX1410">
+        <f>VALUE(323000)</f>
+        <v>323000</v>
+      </c>
+    </row>
+    <row r="1501" spans="1601:1611" x14ac:dyDescent="0.3">
+      <c r="BIO1501">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BIP1501">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="BIQ1501">
+        <f>VALUE(1180)</f>
+        <v>1180</v>
+      </c>
+      <c r="BIR1501">
+        <f>VALUE(1955)</f>
+        <v>1955</v>
+      </c>
+      <c r="BIS1501">
+        <f>VALUE(221900)</f>
+        <v>221900</v>
+      </c>
+      <c r="BIU1501" t="e" cm="1">
+        <f t="array" ref="BIU1501">MMULT(MINVERSE(BIO1501:BIR1510),BIS1501:BIS1510)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BIY1501" t="e" cm="1">
+        <f t="array" ref="BIY1501">MMULT(MINVERSE(BIO1501:BIR1510),BIS1501:BIS1510)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1502" spans="1601:1611" x14ac:dyDescent="0.3">
+      <c r="BIO1502">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BIP1502">
+        <v>2.25</v>
+      </c>
+      <c r="BIQ1502">
+        <f>VALUE(2570)</f>
+        <v>2570</v>
+      </c>
+      <c r="BIR1502">
+        <f>VALUE(1951)</f>
+        <v>1951</v>
+      </c>
+      <c r="BIS1502">
+        <f>VALUE(5328000)</f>
+        <v>5328000</v>
+      </c>
+    </row>
+    <row r="1503" spans="1601:1611" x14ac:dyDescent="0.3">
+      <c r="BIO1503">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="BIP1503">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="BIQ1503">
+        <f>VALUE(770)</f>
+        <v>770</v>
+      </c>
+      <c r="BIR1503">
+        <f>VALUE(1933)</f>
+        <v>1933</v>
+      </c>
+      <c r="BIS1503">
+        <f>VALUE(180000)</f>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="1504" spans="1601:1611" x14ac:dyDescent="0.3">
+      <c r="BIO1504">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="BIP1504">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BIQ1504">
+        <f>VALUE(1960)</f>
+        <v>1960</v>
+      </c>
+      <c r="BIR1504">
+        <f>VALUE(1965)</f>
+        <v>1965</v>
+      </c>
+      <c r="BIS1504">
+        <f>VALUE(604000)</f>
+        <v>604000</v>
+      </c>
+    </row>
+    <row r="1505" spans="1601:1605" x14ac:dyDescent="0.3">
+      <c r="BIO1505">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BIP1505">
+        <f>VALUE(2)</f>
+        <v>2</v>
+      </c>
+      <c r="BIQ1505">
+        <f>VALUE(1680)</f>
+        <v>1680</v>
+      </c>
+      <c r="BIR1505">
+        <f>VALUE(1987)</f>
+        <v>1987</v>
+      </c>
+      <c r="BIS1505">
+        <f>VALUE(510000)</f>
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="1506" spans="1601:1605" x14ac:dyDescent="0.3">
+      <c r="BIO1506">
+        <v>4</v>
+      </c>
+      <c r="BIP1506">
+        <f>VALUE(4.5)</f>
+        <v>4.5</v>
+      </c>
+      <c r="BIQ1506">
+        <f>VALUE(5420)</f>
+        <v>5420</v>
+      </c>
+      <c r="BIR1506">
+        <f>VALUE(2001)</f>
+        <v>2001</v>
+      </c>
+      <c r="BIS1506">
+        <f>VALUE(1230000)</f>
+        <v>1230000</v>
+      </c>
+    </row>
+    <row r="1507" spans="1601:1605" x14ac:dyDescent="0.3">
+      <c r="BIO1507">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BIP1507">
+        <f>VALUE(2.25)</f>
+        <v>2.25</v>
+      </c>
+      <c r="BIQ1507">
+        <f>VALUE(1715)</f>
+        <v>1715</v>
+      </c>
+      <c r="BIR1507">
+        <f>VALUE(1995)</f>
+        <v>1995</v>
+      </c>
+      <c r="BIS1507">
+        <f>VALUE(257500)</f>
+        <v>257500</v>
+      </c>
+    </row>
+    <row r="1508" spans="1601:1605" x14ac:dyDescent="0.3">
+      <c r="BIO1508">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BIP1508">
+        <f>VALUE(1.5)</f>
+        <v>1.5</v>
+      </c>
+      <c r="BIQ1508">
+        <f>VALUE(1060)</f>
+        <v>1060</v>
+      </c>
+      <c r="BIR1508">
+        <f>VALUE(1963)</f>
+        <v>1963</v>
+      </c>
+      <c r="BIS1508">
+        <f>VALUE(291850)</f>
+        <v>291850</v>
+      </c>
+    </row>
+    <row r="1509" spans="1601:1605" x14ac:dyDescent="0.3">
+      <c r="BIO1509">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BIP1509">
+        <f>VALUE(1)</f>
+        <v>1</v>
+      </c>
+      <c r="BIQ1509">
+        <f>VALUE(1780)</f>
+        <v>1780</v>
+      </c>
+      <c r="BIR1509">
+        <f>VALUE(1960)</f>
+        <v>1960</v>
+      </c>
+      <c r="BIS1509">
+        <f>VALUE(229500)</f>
+        <v>229500</v>
+      </c>
+    </row>
+    <row r="1510" spans="1601:1605" x14ac:dyDescent="0.3">
+      <c r="BIO1510">
+        <f>VALUE(3)</f>
+        <v>3</v>
+      </c>
+      <c r="BIP1510">
+        <f>VALUE(2.5)</f>
+        <v>2.5</v>
+      </c>
+      <c r="BIQ1510">
+        <f>VALUE(1890)</f>
+        <v>1890</v>
+      </c>
+      <c r="BIR1510">
+        <f>VALUE(2003)</f>
+        <v>2003</v>
+      </c>
+      <c r="BIS1510">
+        <f>VALUE(323000)</f>
+        <v>323000</v>
+      </c>
+    </row>
+    <row r="1701" spans="1801:1811" x14ac:dyDescent="0.3">
+      <c r="BQG1701">
+        <v>1</v>
+      </c>
+      <c r="BQH1701">
+        <v>1</v>
+      </c>
+      <c r="BQI1701">
+        <v>1</v>
+      </c>
+      <c r="BQJ1701">
+        <v>1</v>
+      </c>
+      <c r="BQK1701">
+        <v>1</v>
+      </c>
+      <c r="BQL1701">
+        <f t="shared" ref="BQL1701:BQP1704" si="0">VALUE(BQG1701)</f>
+        <v>1</v>
+      </c>
+      <c r="BQM1701">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BQN1701">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BQO1701">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BQP1701">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BQQ1701" t="e" cm="1">
+        <f t="array" ref="BQQ1701">MMULT(MINVERSE(BQL1701:BQO1704),BQP1701:BQP1704)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="1702" spans="1801:1811" x14ac:dyDescent="0.3">
+      <c r="BQG1702">
+        <v>1</v>
+      </c>
+      <c r="BQH1702">
+        <v>1</v>
+      </c>
+      <c r="BQI1702">
+        <v>1</v>
+      </c>
+      <c r="BQJ1702">
+        <v>1</v>
+      </c>
+      <c r="BQK1702">
+        <v>1</v>
+      </c>
+      <c r="BQL1702">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BQM1702">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BQN1702">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BQO1702">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BQP1702">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1703" spans="1801:1811" x14ac:dyDescent="0.3">
+      <c r="BQG1703">
+        <v>1</v>
+      </c>
+      <c r="BQH1703">
+        <v>1</v>
+      </c>
+      <c r="BQI1703">
+        <v>1</v>
+      </c>
+      <c r="BQJ1703">
+        <v>1</v>
+      </c>
+      <c r="BQK1703">
+        <v>1</v>
+      </c>
+      <c r="BQL1703">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BQM1703">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BQN1703">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BQO1703">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BQP1703">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1704" spans="1801:1811" x14ac:dyDescent="0.3">
+      <c r="BQG1704">
+        <v>1</v>
+      </c>
+      <c r="BQH1704">
+        <v>1</v>
+      </c>
+      <c r="BQI1704">
+        <v>1</v>
+      </c>
+      <c r="BQJ1704">
+        <v>1</v>
+      </c>
+      <c r="BQK1704">
+        <v>1</v>
+      </c>
+      <c r="BQL1704">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BQM1704">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BQN1704">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BQO1704">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BQP1704">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1801" spans="1901:1907" x14ac:dyDescent="0.3">
+      <c r="BUC1801">
+        <v>3</v>
+      </c>
+      <c r="BUD1801">
+        <v>1</v>
+      </c>
+      <c r="BUE1801">
+        <v>1180</v>
+      </c>
+      <c r="BUF1801">
+        <v>1955</v>
+      </c>
+      <c r="BUG1801">
+        <v>221900</v>
+      </c>
+      <c r="BUI1801" t="e" cm="1">
+        <f t="array" ref="BUI1801">MMULT(MINVERSE(BUC1801:BUF1810),BUG1801:BUG1810)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="1802" spans="1901:1907" x14ac:dyDescent="0.3">
+      <c r="BUC1802">
+        <v>3</v>
+      </c>
+      <c r="BUD1802">
+        <v>2.25</v>
+      </c>
+      <c r="BUE1802">
+        <v>2570</v>
+      </c>
+      <c r="BUF1802">
+        <v>1951</v>
+      </c>
+      <c r="BUG1802">
+        <v>538000</v>
+      </c>
+    </row>
+    <row r="1803" spans="1901:1907" x14ac:dyDescent="0.3">
+      <c r="BUC1803">
+        <v>2</v>
+      </c>
+      <c r="BUD1803">
+        <v>1</v>
+      </c>
+      <c r="BUE1803">
+        <v>770</v>
+      </c>
+      <c r="BUF1803">
+        <v>1933</v>
+      </c>
+      <c r="BUG1803">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="1804" spans="1901:1907" x14ac:dyDescent="0.3">
+      <c r="BUC1804">
+        <v>4</v>
+      </c>
+      <c r="BUD1804">
+        <v>3</v>
+      </c>
+      <c r="BUE1804">
+        <v>1960</v>
+      </c>
+      <c r="BUF1804">
+        <v>1965</v>
+      </c>
+      <c r="BUG1804">
+        <v>604000</v>
+      </c>
+    </row>
+    <row r="1805" spans="1901:1907" x14ac:dyDescent="0.3">
+      <c r="BUC1805">
+        <v>3</v>
+      </c>
+      <c r="BUD1805">
+        <v>2</v>
+      </c>
+      <c r="BUE1805">
+        <v>1680</v>
+      </c>
+      <c r="BUF1805">
+        <v>1987</v>
+      </c>
+      <c r="BUG1805">
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="1806" spans="1901:1907" x14ac:dyDescent="0.3">
+      <c r="BUC1806">
+        <v>4</v>
+      </c>
+      <c r="BUD1806">
+        <v>4.5</v>
+      </c>
+      <c r="BUE1806">
+        <v>5420</v>
+      </c>
+      <c r="BUF1806">
+        <v>2001</v>
+      </c>
+      <c r="BUG1806">
+        <v>1230000</v>
+      </c>
+    </row>
+    <row r="1807" spans="1901:1907" x14ac:dyDescent="0.3">
+      <c r="BUC1807">
+        <v>3</v>
+      </c>
+      <c r="BUD1807">
+        <v>2.25</v>
+      </c>
+      <c r="BUE1807">
+        <v>1715</v>
+      </c>
+      <c r="BUF1807">
+        <v>1995</v>
+      </c>
+      <c r="BUG1807">
+        <v>257500</v>
+      </c>
+    </row>
+    <row r="1808" spans="1901:1907" x14ac:dyDescent="0.3">
+      <c r="BUC1808">
+        <v>3</v>
+      </c>
+      <c r="BUD1808">
+        <v>1.5</v>
+      </c>
+      <c r="BUE1808">
+        <v>1060</v>
+      </c>
+      <c r="BUF1808">
+        <v>1963</v>
+      </c>
+      <c r="BUG1808">
+        <v>291850</v>
+      </c>
+    </row>
+    <row r="1809" spans="1901:1905" x14ac:dyDescent="0.3">
+      <c r="BUC1809">
+        <v>3</v>
+      </c>
+      <c r="BUD1809">
+        <v>1</v>
+      </c>
+      <c r="BUE1809">
+        <v>1780</v>
+      </c>
+      <c r="BUF1809">
+        <v>1960</v>
+      </c>
+      <c r="BUG1809">
+        <v>229500</v>
+      </c>
+    </row>
+    <row r="1810" spans="1901:1905" x14ac:dyDescent="0.3">
+      <c r="BUC1810">
+        <v>3</v>
+      </c>
+      <c r="BUD1810">
+        <v>2.5</v>
+      </c>
+      <c r="BUE1810">
+        <v>1890</v>
+      </c>
+      <c r="BUF1810">
+        <v>2003</v>
+      </c>
+      <c r="BUG1810">
+        <v>323000</v>
+      </c>
+    </row>
+    <row r="1901" spans="2001:2007" x14ac:dyDescent="0.3">
+      <c r="BXY1901">
+        <v>3</v>
+      </c>
+      <c r="BYA1901">
+        <v>1180</v>
+      </c>
+      <c r="BYB1901">
+        <v>1955</v>
+      </c>
+      <c r="BYC1901">
+        <v>221900</v>
+      </c>
+      <c r="BYE1901" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1902" spans="2001:2007" x14ac:dyDescent="0.3">
+      <c r="BXY1902">
+        <v>3</v>
+      </c>
+      <c r="BXZ1902">
+        <v>2.25</v>
+      </c>
+      <c r="BYA1902">
+        <v>2570</v>
+      </c>
+      <c r="BYB1902">
+        <v>1951</v>
+      </c>
+      <c r="BYC1902">
+        <v>538000</v>
+      </c>
+    </row>
+    <row r="1903" spans="2001:2007" x14ac:dyDescent="0.3">
+      <c r="BXY1903">
+        <v>2</v>
+      </c>
+      <c r="BXZ1903">
+        <v>1</v>
+      </c>
+      <c r="BYA1903">
+        <v>770</v>
+      </c>
+      <c r="BYB1903">
+        <v>1933</v>
+      </c>
+      <c r="BYC1903">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="1904" spans="2001:2007" x14ac:dyDescent="0.3">
+      <c r="BXY1904">
+        <v>4</v>
+      </c>
+      <c r="BXZ1904">
+        <v>3</v>
+      </c>
+      <c r="BYA1904">
+        <v>1960</v>
+      </c>
+      <c r="BYB1904">
+        <v>1965</v>
+      </c>
+      <c r="BYC1904">
+        <v>604000</v>
+      </c>
+    </row>
+    <row r="1905" spans="2001:2005" x14ac:dyDescent="0.3">
+      <c r="BXY1905">
+        <v>3</v>
+      </c>
+      <c r="BXZ1905">
+        <v>2</v>
+      </c>
+      <c r="BYA1905">
+        <v>1680</v>
+      </c>
+      <c r="BYB1905">
+        <v>1987</v>
+      </c>
+      <c r="BYC1905">
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="1906" spans="2001:2005" x14ac:dyDescent="0.3">
+      <c r="BXY1906">
+        <v>4</v>
+      </c>
+      <c r="BXZ1906">
+        <v>4.5</v>
+      </c>
+      <c r="BYA1906">
+        <v>5420</v>
+      </c>
+      <c r="BYB1906">
+        <v>2001</v>
+      </c>
+      <c r="BYC1906">
+        <v>1230000</v>
+      </c>
+    </row>
+    <row r="1907" spans="2001:2005" x14ac:dyDescent="0.3">
+      <c r="BXY1907">
+        <v>3</v>
+      </c>
+      <c r="BXZ1907">
+        <v>2.25</v>
+      </c>
+      <c r="BYA1907">
+        <v>1715</v>
+      </c>
+      <c r="BYB1907">
+        <v>1995</v>
+      </c>
+      <c r="BYC1907">
+        <v>257500</v>
+      </c>
+    </row>
+    <row r="1908" spans="2001:2005" x14ac:dyDescent="0.3">
+      <c r="BXY1908">
+        <v>3</v>
+      </c>
+      <c r="BXZ1908">
+        <v>1.5</v>
+      </c>
+      <c r="BYA1908">
+        <v>1060</v>
+      </c>
+      <c r="BYB1908">
+        <v>1963</v>
+      </c>
+      <c r="BYC1908">
+        <v>291850</v>
+      </c>
+    </row>
+    <row r="1909" spans="2001:2005" x14ac:dyDescent="0.3">
+      <c r="BXY1909">
+        <v>3</v>
+      </c>
+      <c r="BXZ1909">
+        <v>1</v>
+      </c>
+      <c r="BYA1909">
         <v>1750</v>
       </c>
-      <c r="CZ9">
+      <c r="BYB1909">
         <v>1960</v>
       </c>
-      <c r="DA9">
+      <c r="BYC1909">
         <v>229500</v>
       </c>
     </row>
-    <row r="10" spans="101:107" x14ac:dyDescent="0.3">
-      <c r="CW10">
-        <v>3</v>
-      </c>
-      <c r="CX10">
+    <row r="1910" spans="2001:2005" x14ac:dyDescent="0.3">
+      <c r="BXY1910">
+        <v>3</v>
+      </c>
+      <c r="BXZ1910">
         <v>2.5</v>
       </c>
-      <c r="CY10">
+      <c r="BYA1910">
         <v>1890</v>
       </c>
-      <c r="CZ10">
+      <c r="BYB1910">
         <v>2003</v>
       </c>
-      <c r="DA10">
+      <c r="BYC1910">
         <v>323000</v>
       </c>
     </row>
-    <row r="101" spans="201:205" x14ac:dyDescent="0.3">
-      <c r="GS101">
-        <v>2</v>
-      </c>
-      <c r="GT101">
-        <v>2</v>
-      </c>
-      <c r="GU101">
+    <row r="2001" spans="2101:2105" x14ac:dyDescent="0.3">
+      <c r="CBU2001">
+        <v>2</v>
+      </c>
+      <c r="CBV2001">
+        <v>2</v>
+      </c>
+      <c r="CBW2001">
         <v>2000</v>
       </c>
-      <c r="GV101">
+      <c r="CBX2001">
         <v>3215501</v>
       </c>
-      <c r="GW101">
+      <c r="CBY2001">
         <v>10301604045</v>
       </c>
     </row>
-    <row r="102" spans="201:205" x14ac:dyDescent="0.3">
-      <c r="GS102">
+    <row r="2002" spans="2101:2105" x14ac:dyDescent="0.3">
+      <c r="CBU2002">
         <v>10</v>
       </c>
-      <c r="GT102">
+      <c r="CBV2002">
         <v>235</v>
       </c>
-      <c r="GU102">
+      <c r="CBW2002">
         <v>123</v>
       </c>
-      <c r="GV102">
+      <c r="CBX2002">
         <v>1246145</v>
       </c>
-      <c r="GW102">
+      <c r="CBY2002">
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="201:205" x14ac:dyDescent="0.3">
-      <c r="GS103">
+    <row r="2003" spans="2101:2105" x14ac:dyDescent="0.3">
+      <c r="CBU2003">
         <v>461045</v>
       </c>
-      <c r="GT103">
+      <c r="CBV2003">
         <v>23450</v>
       </c>
-      <c r="GU103">
+      <c r="CBW2003">
         <v>1325406</v>
       </c>
-      <c r="GV103">
+      <c r="CBX2003">
         <v>104015</v>
       </c>
-      <c r="GW103">
+      <c r="CBY2003">
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="201:205" x14ac:dyDescent="0.3">
-      <c r="GS104">
+    <row r="2004" spans="2101:2105" x14ac:dyDescent="0.3">
+      <c r="CBU2004">
         <v>1045</v>
       </c>
-      <c r="GT104">
+      <c r="CBV2004">
         <v>4501</v>
       </c>
-      <c r="GU104">
+      <c r="CBW2004">
         <v>540</v>
       </c>
-      <c r="GV104">
+      <c r="CBX2004">
         <v>40</v>
       </c>
-      <c r="GW104">
+      <c r="CBY2004">
         <v>104</v>
       </c>
     </row>
-    <row r="301" spans="401:405" x14ac:dyDescent="0.3">
-      <c r="OK301" s="1">
-        <v>2</v>
-      </c>
-      <c r="OL301" s="1">
-        <v>2</v>
-      </c>
-      <c r="OM301" s="1">
+    <row r="2201" spans="2301:2305" x14ac:dyDescent="0.3">
+      <c r="CJM2201" s="1">
+        <v>2</v>
+      </c>
+      <c r="CJN2201" s="1">
+        <v>2</v>
+      </c>
+      <c r="CJO2201" s="1">
         <v>1400</v>
       </c>
-      <c r="ON301" s="1">
+      <c r="CJP2201" s="1">
         <v>1967</v>
       </c>
-      <c r="OO301" s="1">
+      <c r="CJQ2201" s="1">
         <v>220000</v>
       </c>
     </row>
-    <row r="302" spans="401:405" x14ac:dyDescent="0.3">
-      <c r="OK302" s="1">
-        <v>3</v>
-      </c>
-      <c r="OL302" s="1">
-        <v>2</v>
-      </c>
-      <c r="OM302" s="1">
+    <row r="2202" spans="2301:2305" x14ac:dyDescent="0.3">
+      <c r="CJM2202" s="1">
+        <v>3</v>
+      </c>
+      <c r="CJN2202" s="1">
+        <v>2</v>
+      </c>
+      <c r="CJO2202" s="1">
         <v>1300</v>
       </c>
-      <c r="ON302" s="1">
+      <c r="CJP2202" s="1">
         <v>1984</v>
       </c>
-      <c r="OO302" s="1">
+      <c r="CJQ2202" s="1">
         <v>400200</v>
       </c>
     </row>
-    <row r="303" spans="401:405" x14ac:dyDescent="0.3">
-      <c r="OK303" s="1">
-        <v>2</v>
-      </c>
-      <c r="OL303" s="1">
-        <v>2</v>
-      </c>
-      <c r="OM303" s="1">
+    <row r="2203" spans="2301:2305" x14ac:dyDescent="0.3">
+      <c r="CJM2203" s="1">
+        <v>2</v>
+      </c>
+      <c r="CJN2203" s="1">
+        <v>2</v>
+      </c>
+      <c r="CJO2203" s="1">
         <v>900</v>
       </c>
-      <c r="ON303" s="1">
+      <c r="CJP2203" s="1">
         <v>1989</v>
       </c>
-      <c r="OO303" s="1">
+      <c r="CJQ2203" s="1">
         <v>250000</v>
       </c>
     </row>
-    <row r="304" spans="401:405" x14ac:dyDescent="0.3">
-      <c r="OK304" s="1">
-        <v>4</v>
-      </c>
-      <c r="OL304" s="1">
-        <v>3</v>
-      </c>
-      <c r="OM304" s="1">
+    <row r="2204" spans="2301:2305" x14ac:dyDescent="0.3">
+      <c r="CJM2204" s="1">
+        <v>4</v>
+      </c>
+      <c r="CJN2204" s="1">
+        <v>3</v>
+      </c>
+      <c r="CJO2204" s="1">
         <v>2900</v>
       </c>
-      <c r="ON304" s="1">
+      <c r="CJP2204" s="1">
         <v>1955</v>
       </c>
-      <c r="OO304" s="1">
+      <c r="CJQ2204" s="1">
         <v>640000</v>
       </c>
     </row>
